--- a/public/fichiercone.xlsx
+++ b/public/fichiercone.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\OneDrive\Bureau\Transport\V25\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCCE1E-0C3C-4EF7-B87B-4CCA56F7AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Feuille 1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -149,24 +130,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +161,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -189,38 +180,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -247,22 +261,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,131 +348,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -409,1534 +510,1495 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" style="8" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="25.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C2" s="4">
+        <v>1.1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>1.2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
         <v>23</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>100</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:H31" si="0">(C2*F2)+E2</f>
-        <v>26.5</v>
+      <c r="H2" s="4">
+        <f>(C2*F2)+E2</f>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C3" s="4">
+        <v>1.1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>3.4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>1200</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
-        <v>113.40000000000002</v>
+      <c r="H3" s="4">
+        <f>(C3*F3)+E3</f>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C4" s="4">
+        <v>1.1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>300</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>1600</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>336</v>
+      <c r="H4" s="6">
+        <f>(C4*F4)+E4</f>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C5" s="4">
+        <v>1.1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>13.3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>600</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>1600</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>673.3</v>
+      <c r="H5" s="4">
+        <f>(C5*F5)+E5</f>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C6" s="4">
+        <v>1.1</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="6">
         <v>18</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>1000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>1600</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>1118</v>
+      <c r="H6" s="6">
+        <f>(C6*F6)+E6</f>
       </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C7" s="4">
+        <v>1.1</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>1.2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>100</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>12.2</v>
+      <c r="H7" s="4">
+        <f>(C7*F7)+E7</f>
       </c>
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C8" s="4">
+        <v>1.1</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>3.4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>40</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>1200</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>47.4</v>
+      <c r="H8" s="4">
+        <f>(C8*F8)+E8</f>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C9" s="4">
+        <v>1.1</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="6">
         <v>6</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>100</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>1600</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
-        <v>116.00000000000001</v>
+      <c r="H9" s="4">
+        <f>(C9*F9)+E9</f>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C10" s="4">
+        <v>1.1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>13.3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>180</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>1600</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>211.30000000000004</v>
+      <c r="H10" s="4">
+        <f>(C10*F10)+E10</f>
       </c>
       <c r="I10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.1000000000000001</v>
+      <c r="C11" s="4">
+        <v>1.1</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>20</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>360</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>2250</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>416.00000000000006</v>
+      <c r="H11" s="4">
+        <f>(C11*F11)+E11</f>
       </c>
       <c r="I11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1">
-        <v>2.2000000000000002</v>
+      <c r="C12" s="4">
+        <v>2.2</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>1.2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>10</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="6">
         <v>100</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>23.2</v>
+      <c r="H12" s="4">
+        <f>(C12*F12)+E12</f>
       </c>
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
-        <v>2.2000000000000002</v>
+      <c r="C13" s="4">
+        <v>2.2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>3.4</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="6">
         <v>40</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="6">
         <v>1200</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>91.4</v>
+      <c r="H13" s="4">
+        <f>(C13*F13)+E13</f>
       </c>
       <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1">
-        <v>2.2000000000000002</v>
+      <c r="C14" s="4">
+        <v>2.2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>6</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="6">
         <v>150</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="6">
         <v>1600</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>336</v>
+      <c r="H14" s="6">
+        <f>(C14*F14)+E14</f>
       </c>
       <c r="I14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1">
-        <v>2.2000000000000002</v>
+      <c r="C15" s="4">
+        <v>2.2</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>13.3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>300</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>1600</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>673.3</v>
+      <c r="H15" s="4">
+        <f>(C15*F15)+E15</f>
       </c>
       <c r="I15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1">
-        <v>2.2000000000000002</v>
+      <c r="C16" s="4">
+        <v>2.2</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>18</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>560</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <v>1800</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+      <c r="H16" s="6">
+        <f>(C16*F16)+E16</f>
       </c>
       <c r="I16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>3.2</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>1.2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="6">
         <v>7</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="6">
         <v>100</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>23.6</v>
+      <c r="H17" s="4">
+        <f>(C17*F17)+E17</f>
       </c>
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>3.2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>3.4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="6">
         <v>10</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="6">
         <v>1200</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>35.4</v>
+      <c r="H18" s="4">
+        <f>(C18*F18)+E18</f>
       </c>
       <c r="I18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>3.2</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>6</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="6">
         <v>50</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="6">
         <v>1600</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>166</v>
+      <c r="H19" s="6">
+        <f>(C19*F19)+E19</f>
       </c>
       <c r="I19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>3.2</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>13.3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="6">
         <v>180</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="6">
         <v>1600</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>589.29999999999995</v>
+      <c r="H20" s="4">
+        <f>(C20*F20)+E20</f>
       </c>
       <c r="I20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>3.2</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="6">
         <v>18</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>315</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="6">
         <v>1900</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>1026</v>
+      <c r="H21" s="6">
+        <f>(C21*F21)+E21</f>
       </c>
       <c r="I21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>4.2</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>1.2</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="6">
         <v>7</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="6">
         <v>100</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>30.6</v>
+      <c r="H22" s="4">
+        <f>(C22*F22)+E22</f>
       </c>
       <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>4.2</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>3.4</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="6">
         <v>10</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="6">
         <v>1200</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="0"/>
-        <v>45.4</v>
+      <c r="H23" s="4">
+        <f>(C23*F23)+E23</f>
       </c>
       <c r="I23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>4.2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="6">
         <v>6</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="6">
         <v>50</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="6">
         <v>1600</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>216</v>
+      <c r="H24" s="6">
+        <f>(C24*F24)+E24</f>
       </c>
       <c r="I24" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>4.2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>13.3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="6">
         <v>150</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="6">
         <v>1600</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="0"/>
-        <v>643.29999999999995</v>
+      <c r="H25" s="4">
+        <f>(C25*F25)+E25</f>
       </c>
       <c r="I25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>4.2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <v>18</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="6">
         <v>270</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="6">
         <v>2000</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>1152</v>
+      <c r="H26" s="6">
+        <f>(C26*F26)+E26</f>
       </c>
       <c r="I26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>5.2</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>1.2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <v>5</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="6">
         <v>100</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="0"/>
-        <v>27.2</v>
+      <c r="H27" s="4">
+        <f>(C27*F27)+E27</f>
       </c>
       <c r="I27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>5.2</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>3.4</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="6">
         <v>10</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="6">
         <v>1200</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>55.4</v>
+      <c r="H28" s="4">
+        <f>(C28*F28)+E28</f>
       </c>
       <c r="I28" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>5.2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <v>6</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <v>50</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="6">
         <v>1600</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="0"/>
-        <v>266</v>
+      <c r="H29" s="6">
+        <f>(C29*F29)+E29</f>
       </c>
       <c r="I29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>5.2</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>13.3</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="6">
         <v>150</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="6">
         <v>1600</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="0"/>
-        <v>793.3</v>
+      <c r="H30" s="4">
+        <f>(C30*F30)+E30</f>
       </c>
       <c r="I30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>5.2</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="6">
         <v>18</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="6">
         <v>225</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="6">
         <v>1900</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="0"/>
-        <v>1188</v>
+      <c r="H31" s="6">
+        <f>(C31*F31)+E31</f>
       </c>
       <c r="I31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>7.5</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>1.2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="6">
         <v>0</v>
       </c>
-      <c r="H32" s="1">
+      <c r="G32" s="7"/>
+      <c r="H32" s="6">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>7.5</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="4">
         <v>3.4</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="6">
         <v>7</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="6">
         <v>1200</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" ref="H33:H36" si="1">(C33*F33)+E33</f>
-        <v>55.9</v>
+      <c r="H33" s="4">
+        <f>(C33*F33)+E33</f>
       </c>
       <c r="I33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>7.5</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="6">
         <v>6</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6">
         <v>20</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="6">
         <v>1600</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" si="1"/>
-        <v>156</v>
+      <c r="H34" s="6">
+        <f>(C34*F34)+E34</f>
       </c>
       <c r="I34" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>7.5</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <v>13.3</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="6">
         <v>75</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="6">
         <v>1800</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
-        <v>575.79999999999995</v>
+      <c r="H35" s="4">
+        <f>(C35*F35)+E35</f>
       </c>
       <c r="I35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <v>7.5</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="6">
         <v>20</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="6">
         <v>140</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="6">
         <v>2100</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="1"/>
-        <v>1070</v>
+      <c r="H36" s="6">
+        <f>(C36*F36)+E36</f>
       </c>
       <c r="I36" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="4">
         <v>4.3</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="4">
         <v>1.2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="6">
         <v>0</v>
       </c>
-      <c r="H37" s="1">
+      <c r="G37" s="7"/>
+      <c r="H37" s="6">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>4.3</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="4">
         <v>3.4</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="6">
         <v>10</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="6">
         <v>1200</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" ref="H38:H41" si="2">(C38*F38)+E38</f>
-        <v>46.4</v>
+      <c r="H38" s="4">
+        <f>(C38*F38)+E38</f>
       </c>
       <c r="I38" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <v>4.3</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="6">
         <v>6</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="6">
         <v>50</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="6">
         <v>1600</v>
       </c>
-      <c r="H39" s="1">
-        <f t="shared" si="2"/>
-        <v>221</v>
+      <c r="H39" s="6">
+        <f>(C39*F39)+E39</f>
       </c>
       <c r="I39" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>4.3</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="4">
         <v>13.3</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="6">
         <v>180</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="6">
         <v>1600</v>
       </c>
-      <c r="H40" s="1">
-        <f t="shared" si="2"/>
-        <v>787.3</v>
+      <c r="H40" s="4">
+        <f>(C40*F40)+E40</f>
       </c>
       <c r="I40" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>4.3</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="6">
         <v>20</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="6">
         <v>270</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="6">
         <v>2000</v>
       </c>
-      <c r="H41" s="1">
-        <f t="shared" si="2"/>
-        <v>1181</v>
+      <c r="H41" s="6">
+        <f>(C41*F41)+E41</f>
       </c>
       <c r="I41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>4.3</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="4">
         <v>1.2</v>
       </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="F42" s="6">
+        <v>6</v>
+      </c>
+      <c r="G42" s="7">
+        <v>100</v>
+      </c>
+      <c r="H42" s="6">
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>4.3</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="4">
         <v>3.4</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="6">
         <v>10</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="6">
         <v>1200</v>
       </c>
-      <c r="H43" s="1">
-        <f t="shared" ref="H43:H46" si="3">(C43*F43)+E43</f>
-        <v>46.4</v>
+      <c r="H43" s="4">
+        <f>(C43*F43)+E43</f>
       </c>
       <c r="I43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>4.3</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="6">
         <v>6</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="6">
         <v>50</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="6">
         <v>1600</v>
       </c>
-      <c r="H44" s="1">
-        <f t="shared" si="3"/>
-        <v>221</v>
+      <c r="H44" s="6">
+        <f>(C44*F44)+E44</f>
       </c>
       <c r="I44" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>4.3</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="4">
         <v>13.3</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="6">
         <v>180</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="6">
         <v>1600</v>
       </c>
-      <c r="H45" s="1">
-        <f t="shared" si="3"/>
-        <v>787.3</v>
+      <c r="H45" s="4">
+        <f>(C45*F45)+E45</f>
       </c>
       <c r="I45" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="4">
         <v>4.3</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="6">
         <v>18</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="6">
         <v>270</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="6">
         <v>2000</v>
       </c>
-      <c r="H46" s="1">
-        <f t="shared" si="3"/>
-        <v>1179</v>
+      <c r="H46" s="6">
+        <f>(C46*F46)+E46</f>
       </c>
       <c r="I46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
       <c r="A47" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="4">
         <v>4.3</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="4">
         <v>1.2</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="6">
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="G47" s="7"/>
+      <c r="H47" s="6">
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="4">
         <v>4.3</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="4">
         <v>3.4</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="6">
         <v>10</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="6">
         <v>1200</v>
       </c>
-      <c r="H48" s="1">
-        <f t="shared" ref="H48:H51" si="4">(C48*F48)+E48</f>
-        <v>46.4</v>
+      <c r="H48" s="4">
+        <f>(C48*F48)+E48</f>
       </c>
       <c r="I48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="4">
         <v>4.3</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="6">
         <v>6</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="6">
         <v>50</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="6">
         <v>1600</v>
       </c>
-      <c r="H49" s="1">
-        <f t="shared" si="4"/>
-        <v>221</v>
+      <c r="H49" s="6">
+        <f>(C49*F49)+E49</f>
       </c>
       <c r="I49" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
       <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="4">
         <v>4.3</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="4">
         <v>13.3</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="6">
         <v>180</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="6">
         <v>1600</v>
       </c>
-      <c r="H50" s="1">
-        <f t="shared" si="4"/>
-        <v>787.3</v>
+      <c r="H50" s="4">
+        <f>(C50*F50)+E50</f>
       </c>
       <c r="I50" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="4">
         <v>4.3</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="6">
         <v>18</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="6">
         <v>270</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="6">
         <v>2000</v>
       </c>
-      <c r="H51" s="1">
-        <f t="shared" si="4"/>
-        <v>1179</v>
+      <c r="H51" s="6">
+        <f>(C51*F51)+E51</f>
       </c>
       <c r="I51" s="1" t="s">
         <v>18</v>
